--- a/test.xlsx
+++ b/test.xlsx
@@ -24,133 +24,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
-  <si>
-    <t>109/78/37</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+  <si>
+    <t>107/320/1302</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
+    <t>4 31 3 44</t>
+  </si>
+  <si>
+    <t>मुकरम साहेबअली सय्यद</t>
+  </si>
+  <si>
+    <t>वडील</t>
+  </si>
+  <si>
+    <t>सय्यद साहेबअली</t>
+  </si>
+  <si>
+    <t>पुरुष</t>
+  </si>
+  <si>
+    <t>CVT2379675</t>
+  </si>
+  <si>
+    <t>+918805774702</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>VASEEM HABIB KHAN</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Khan Habib</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>UZZ9950197</t>
-  </si>
-  <si>
-    <t>Matadan Kendr : 2 Eastern Side Rum No. Purv Baju Kholi Nambar Patta: E . Ema . Si . Prathamik Shal ( Indiranagar ): E . Ema Si Prathamik Shal ( Indiranagar )</t>
-  </si>
-  <si>
-    <t>Rengatipura Aurangabad</t>
-  </si>
-  <si>
-    <t>109/78/42</t>
-  </si>
-  <si>
-    <t>अ ि</t>
-  </si>
-  <si>
-    <t>UMAR ABDULLA HILABEE</t>
-  </si>
-  <si>
-    <t>Ha Ilabi Abdull</t>
-  </si>
-  <si>
-    <t>UZZ9939505</t>
+    <t>मतदान केंद्र : ४२ Room No. २ North Side खोली क्रमांक २ उत्तर बाजू पत्ता : विजयेंद्र काबरा कॉलेज ऑफ सोशल वर्क ( बंजारा कॉलनी छत्रपती संभाजीनगर )</t>
+  </si>
+  <si>
+    <t>सिल्ले खाना सिल्ले खानाऔरंगाबाद</t>
   </si>
   <si>
     <t>+919097374777</t>
   </si>
   <si>
-    <t>109/78/43</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>ALI ABDULA HILABI</t>
-  </si>
-  <si>
-    <t>Hathilabi Abdull</t>
-  </si>
-  <si>
-    <t>UZZ9939497</t>
-  </si>
-  <si>
     <t>+918421713606</t>
   </si>
   <si>
-    <t>+918805774702</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Prabhaag</t>
-  </si>
-  <si>
-    <t>Sr No</t>
-  </si>
-  <si>
-    <t>House No</t>
-  </si>
-  <si>
-    <t>Voter Name</t>
-  </si>
-  <si>
-    <t>Relation</t>
-  </si>
-  <si>
-    <t>Relative's Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
+    <t>भाग</t>
+  </si>
+  <si>
+    <t>प्रभाग</t>
+  </si>
+  <si>
+    <t>अनु. क्र.</t>
+  </si>
+  <si>
+    <t>घर क्र.</t>
+  </si>
+  <si>
+    <t>मतदाराचे नाव</t>
+  </si>
+  <si>
+    <t>नाते</t>
+  </si>
+  <si>
+    <t>नातेवाईकाचे नाव</t>
+  </si>
+  <si>
+    <t>लिंग</t>
+  </si>
+  <si>
+    <t>वय</t>
   </si>
   <si>
     <t>EPIC</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Karyakarta</t>
-  </si>
-  <si>
-    <t>Cast</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Booth Address</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>मोबाईल</t>
+  </si>
+  <si>
+    <t>कार्यकर्ता</t>
+  </si>
+  <si>
+    <t>जात</t>
+  </si>
+  <si>
+    <t>रंग</t>
+  </si>
+  <si>
+    <t>बूथ पत्ता</t>
+  </si>
+  <si>
+    <t>पत्ता</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,9 +132,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,16 +162,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -199,11 +179,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,79 +470,76 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>37</v>
+        <v>878</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -579,134 +557,134 @@
         <v>6</v>
       </c>
       <c r="J2" s="1">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>42</v>
+        <v>878</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>43</v>
+        <v>878</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -71,52 +71,52 @@
     <t>AC</t>
   </si>
   <si>
-    <t>भाग</t>
-  </si>
-  <si>
-    <t>प्रभाग</t>
-  </si>
-  <si>
-    <t>अनु. क्र.</t>
-  </si>
-  <si>
-    <t>घर क्र.</t>
-  </si>
-  <si>
-    <t>मतदाराचे नाव</t>
-  </si>
-  <si>
-    <t>नाते</t>
-  </si>
-  <si>
-    <t>नातेवाईकाचे नाव</t>
-  </si>
-  <si>
-    <t>लिंग</t>
-  </si>
-  <si>
-    <t>वय</t>
-  </si>
-  <si>
     <t>EPIC</t>
   </si>
   <si>
-    <t>मोबाईल</t>
-  </si>
-  <si>
-    <t>कार्यकर्ता</t>
-  </si>
-  <si>
-    <t>जात</t>
-  </si>
-  <si>
-    <t>रंग</t>
-  </si>
-  <si>
-    <t>बूथ पत्ता</t>
-  </si>
-  <si>
-    <t>पत्ता</t>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Prabhaag</t>
+  </si>
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>House No</t>
+  </si>
+  <si>
+    <t>Voter Name</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Relative's Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Karyakarta</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Booth Address</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -139,9 +139,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,6 +173,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -184,7 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,44 +483,44 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>25</v>
